--- a/UnitTest/Sample/Item/item.xlsx
+++ b/UnitTest/Sample/Item/item.xlsx
@@ -5,13 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="InitSubmitValidData" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="ExpSubmitValidData" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="InitSubmitInvalidData" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="ExpSubmit" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,9 +22,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
-  <si>
-    <t xml:space="preserve">ExpectedData</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
+  <si>
+    <t xml:space="preserve">TestCase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Submit – Valid Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExpectedSheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExpSubmitValidData</t>
   </si>
   <si>
     <t xml:space="preserve">ErrorValidation</t>
@@ -61,43 +69,16 @@
     <t xml:space="preserve">Item 0002</t>
   </si>
   <si>
+    <t xml:space="preserve">Test Submit – Invalid Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InitSubmitInvalidData</t>
+  </si>
+  <si>
     <t xml:space="preserve">Error Message 1</t>
   </si>
   <si>
     <t xml:space="preserve">Error Message 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected Submit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ExpectedSheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ExpSubmit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ExcpectedData</t>
-  </si>
-  <si>
-    <t xml:space="preserve">true</t>
   </si>
 </sst>
 </file>
@@ -182,57 +163,53 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -426,92 +403,97 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="46.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="46.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="13.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="13.01"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="b">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0"/>
+      <c r="B4" s="0"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="B5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="n">
-        <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="n">
-        <v>2</v>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D7" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -529,77 +511,71 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="46.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="46.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="13.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="13.01"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="n">
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -619,8 +595,8 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -631,84 +607,94 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="13.01"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="b">
+      <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5"/>
+      <c r="B4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6"/>
+      <c r="B5" s="0"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7"/>
-      <c r="B3" s="12" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -719,157 +705,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <outlinePr summaryBelow="0"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="27.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="13.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="13.01"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7"/>
-      <c r="B5" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
 </file>